--- a/Logs/test_new/testing_timestep_output.xlsx
+++ b/Logs/test_new/testing_timestep_output.xlsx
@@ -402,10 +402,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.138671875</v>
+        <v>-0.5546875</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -413,7 +413,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>-0.138671875</v>
+        <v>-0.438720703125</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -424,10 +424,10 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>-0.1961669921875</v>
       </c>
       <c r="C4">
-        <v>0.251312255859375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -435,10 +435,10 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>-0.085693359375</v>
+        <v>-0.3427734375</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -446,7 +446,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>-0.06060791015625</v>
+        <v>-0.242431640625</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>-0.06060791015625</v>
+        <v>-0.5419921875</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>-0.06060791015625</v>
+        <v>-0.5419921875</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>-0.06060791015625</v>
+        <v>-0.242431640625</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -490,7 +490,7 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>-0.06060791015625</v>
+        <v>-0.242431640625</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>-0.06060791015625</v>
+        <v>-0.242431640625</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -512,18 +512,18 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>-0.48486328125</v>
       </c>
       <c r="C12">
-        <v>0.25225830078125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>-0.07904052734375</v>
+        <v>-0.5419921875</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -534,10 +534,10 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>-0.07904052734375</v>
+        <v>-0.52734375</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1.2904052734375</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -545,7 +545,7 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <v>-0.07904052734375</v>
+        <v>-0.85009765625</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>2</v>
       </c>
       <c r="B16">
-        <v>-0.07904052734375</v>
+        <v>-0.52734375</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -567,7 +567,7 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>-0.167724609375</v>
+        <v>-0.52734375</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>2</v>
       </c>
       <c r="B18">
-        <v>-0.167724609375</v>
+        <v>-0.52734375</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>2</v>
       </c>
       <c r="B19">
-        <v>-0.167724609375</v>
+        <v>-0.52734375</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -600,40 +600,40 @@
         <v>2</v>
       </c>
       <c r="B20">
-        <v>-0.2305908203125</v>
+        <v>-0.85009765625</v>
       </c>
       <c r="C20">
-        <v>0.25579833984375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21">
         <v>-1</v>
       </c>
       <c r="C21">
-        <v>0.31060791015625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22">
-        <v>-0.1318359375</v>
+        <v>-0.52734375</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1.0546875</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23">
-        <v>-0.1318359375</v>
+        <v>-0.52734375</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -641,10 +641,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24">
-        <v>-0.058929443359375</v>
+        <v>-0.2357177734375</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -652,10 +652,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>-0.058929443359375</v>
+        <v>-0.2357177734375</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -663,10 +663,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26">
-        <v>-0.1318359375</v>
+        <v>-0.333251953125</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -674,32 +674,32 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27">
-        <v>-0.1318359375</v>
+        <v>-1</v>
       </c>
       <c r="C27">
-        <v>0.263671875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28">
-        <v>-0.11181640625</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1.341796875</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29">
-        <v>-0.07904052734375</v>
+        <v>-0.316162109375</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -707,76 +707,76 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30">
-        <v>-0.1767578125</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C30">
-        <v>0.33544921875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31">
-        <v>-0.212158203125</v>
+        <v>-0.8486328125</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1.07958984375</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32">
-        <v>-0.1802978515625</v>
+        <v>-0.72119140625</v>
       </c>
       <c r="C32">
-        <v>0.2698974609375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33">
-        <v>-0.04998779296875</v>
+        <v>-0.199951171875</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1.025146484375</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34">
-        <v>-0.206298828125</v>
+        <v>-0.8251953125</v>
       </c>
       <c r="C34">
-        <v>0.25628662109375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35">
-        <v>-0.1580810546875</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1.52685546875</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36">
-        <v>-0.1580810546875</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -784,10 +784,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37">
-        <v>-0.11181640625</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -795,10 +795,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B38">
-        <v>-0.11181640625</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -806,10 +806,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39">
-        <v>-0.1580810546875</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -817,10 +817,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40">
-        <v>-0.1580810546875</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -828,21 +828,21 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B41">
-        <v>-1</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C41">
-        <v>0.3817138671875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B42">
-        <v>-0.155029296875</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -850,10 +850,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B43">
-        <v>-0.138671875</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -861,10 +861,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B44">
-        <v>-0.0693359375</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -872,10 +872,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B45">
-        <v>-0.0693359375</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -883,76 +883,76 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B46">
-        <v>-0.25</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C46">
-        <v>0.363037109375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B47">
-        <v>-1</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C47">
-        <v>0.2860107421875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B48">
-        <v>-1</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C48">
-        <v>0.3265380859375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B49">
-        <v>-1</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C49">
-        <v>0.33837890625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B50">
-        <v>-1</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C50">
-        <v>0.34429931640625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B51">
-        <v>-1</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C51">
-        <v>0.30303955078125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B52">
-        <v>-0.25</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -960,10 +960,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B53">
-        <v>-0.25</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -971,21 +971,21 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B54">
-        <v>-0.225341796875</v>
+        <v>-0.5</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1.29052734375</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B55">
-        <v>-0.225341796875</v>
+        <v>-0.5</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -993,10 +993,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B56">
-        <v>-0.225341796875</v>
+        <v>-0.353515625</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1004,21 +1004,21 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B57">
-        <v>-0.1397705078125</v>
+        <v>-0.5546875</v>
       </c>
       <c r="C57">
-        <v>0.3651123046875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B58">
-        <v>-0.08837890625</v>
+        <v>-0.5546875</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1026,10 +1026,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B59">
-        <v>-0.08837890625</v>
+        <v>-1</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1037,21 +1037,21 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B60">
-        <v>-0.08837890625</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>1.341796875</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B61">
-        <v>-0.125</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1059,10 +1059,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B62">
-        <v>-0.1976318359375</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1070,10 +1070,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B63">
-        <v>-0.1976318359375</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1081,10 +1081,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B64">
-        <v>-0.1976318359375</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1092,10 +1092,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B65">
-        <v>-0.08837890625</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B66">
-        <v>-0.08837890625</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1114,21 +1114,21 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B67">
-        <v>-1</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C67">
-        <v>0.2860107421875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B68">
-        <v>-0.09283447265625</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1136,10 +1136,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B69">
-        <v>-0.09283447265625</v>
+        <v>-1</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1147,21 +1147,21 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B70">
-        <v>-0.046417236328125</v>
+        <v>-0.27734375</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>1.15478515625</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B71">
-        <v>-0.046417236328125</v>
+        <v>-0.5546875</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1169,10 +1169,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B72">
-        <v>-0.09283447265625</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B73">
-        <v>-0.09283447265625</v>
+        <v>-1</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1191,21 +1191,21 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B74">
-        <v>-0.046417236328125</v>
+        <v>-1</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>1.2357177734375</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B75">
-        <v>-0.046417236328125</v>
+        <v>-0.52734375</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -1213,10 +1213,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B76">
-        <v>-0.09283447265625</v>
+        <v>-0.2357177734375</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -1224,10 +1224,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B77">
-        <v>-0.103759765625</v>
+        <v>-0.471435546875</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -1235,10 +1235,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B78">
-        <v>-0.103759765625</v>
+        <v>-0.2357177734375</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -1246,21 +1246,21 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B79">
-        <v>-0.09283447265625</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>1.517578125</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B80">
-        <v>-0.09283447265625</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -1268,10 +1268,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B81">
-        <v>-0.09283447265625</v>
+        <v>-0.27734375</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -1279,32 +1279,32 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B82">
-        <v>-0.046417236328125</v>
+        <v>-1</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>1.1961669921875</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B83">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="C83">
-        <v>0.296417236328125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B84">
-        <v>-0.085693359375</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -1312,10 +1312,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B85">
-        <v>-0.085693359375</v>
+        <v>-0.438720703125</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -1323,21 +1323,21 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B86">
-        <v>-0.191650390625</v>
+        <v>-0.438720703125</v>
       </c>
       <c r="C86">
-        <v>0.363037109375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B87">
-        <v>-0.25</v>
+        <v>-0.438720703125</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -1345,10 +1345,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B88">
-        <v>-0.2236328125</v>
+        <v>-0.438720703125</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -1356,10 +1356,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B89">
-        <v>-0.2236328125</v>
+        <v>-0.438720703125</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -1367,10 +1367,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B90">
-        <v>-0.25</v>
+        <v>-0.438720703125</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -1378,32 +1378,32 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B91">
-        <v>-1</v>
+        <v>-0.80908203125</v>
       </c>
       <c r="C91">
-        <v>0.36181640625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B92">
-        <v>-0.1580810546875</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>1.447265625</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B93">
-        <v>-0.11181640625</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -1411,10 +1411,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B94">
-        <v>-0.1580810546875</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -1422,43 +1422,43 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B95">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="C95">
-        <v>0.36181640625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B96">
         <v>-1</v>
       </c>
       <c r="C96">
-        <v>0.299041748046875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B97">
-        <v>-0.1580810546875</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B98">
-        <v>-0.0999755859375</v>
+        <v>-0.39990234375</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -1466,32 +1466,32 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B99">
-        <v>-0.1802978515625</v>
+        <v>-0.72119140625</v>
       </c>
       <c r="C99">
-        <v>0.2698974609375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B100">
-        <v>-0.135498046875</v>
+        <v>-1</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>1.242431640625</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B101">
-        <v>-0.1212158203125</v>
+        <v>-0.242431640625</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -1499,87 +1499,87 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B102">
-        <v>-0.1212158203125</v>
+        <v>-0.89453125</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>1.63232421875</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B103">
-        <v>-0.135498046875</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C103">
-        <v>0.27099609375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B104">
-        <v>-1</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C104">
-        <v>0.305908203125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B105">
-        <v>-0.2080078125</v>
+        <v>-0.83203125</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>1.83203125</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B106">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="C106">
-        <v>0.4580078125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B107">
         <v>-1</v>
       </c>
       <c r="C107">
-        <v>0.3140869140625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B108">
-        <v>-0.07904052734375</v>
+        <v>-0.316162109375</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>1.023193359375</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B109">
-        <v>-0.07904052734375</v>
+        <v>-0.5</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -1587,10 +1587,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B110">
-        <v>-0.055908203125</v>
+        <v>-0.5</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -1598,10 +1598,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B111">
-        <v>-0.055908203125</v>
+        <v>-0.316162109375</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -1609,21 +1609,21 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B112">
-        <v>-1</v>
+        <v>-0.2236328125</v>
       </c>
       <c r="C112">
-        <v>0.25579833984375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B113">
-        <v>-0.08575439453125</v>
+        <v>-0.2236328125</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -1631,10 +1631,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B114">
-        <v>-0.06060791015625</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -1642,21 +1642,21 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B115">
-        <v>-0.06060791015625</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>1.4140625</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B116">
-        <v>-0.06060791015625</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -1664,21 +1664,21 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B117">
-        <v>-0.1212158203125</v>
+        <v>-0.7841796875</v>
       </c>
       <c r="C117">
-        <v>0.2567138671875</v>
+        <v>1.39208984375</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B118">
-        <v>-0.1666259765625</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -1686,10 +1686,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B119">
-        <v>-0.1666259765625</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -1697,21 +1697,21 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B120">
-        <v>-1</v>
+        <v>-0.27734375</v>
       </c>
       <c r="C120">
-        <v>0.31903076171875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B121">
-        <v>-0.1318359375</v>
+        <v>-1</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -1719,10 +1719,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B122">
-        <v>-0.1318359375</v>
+        <v>-0.7841796875</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -1730,10 +1730,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B123">
-        <v>-0.1318359375</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -1741,32 +1741,32 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B124">
-        <v>-0.1318359375</v>
+        <v>-1</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B125">
-        <v>-0.11785888671875</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>1.63232421875</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B126">
-        <v>-0.11785888671875</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -1774,10 +1774,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B127">
-        <v>-0.11785888671875</v>
+        <v>-1</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -1785,43 +1785,43 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B128">
-        <v>-0.1318359375</v>
+        <v>-1</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B129">
-        <v>-0.1318359375</v>
+        <v>-1</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B130">
-        <v>-0.1318359375</v>
+        <v>-0.333251953125</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>2.412109375</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B131">
-        <v>-0.1318359375</v>
+        <v>-0.333251953125</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -1829,21 +1829,21 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B132">
-        <v>-1</v>
+        <v>-0.74560546875</v>
       </c>
       <c r="C132">
-        <v>0.46514892578125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B133">
-        <v>-0.25</v>
+        <v>-0.74560546875</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B134">
-        <v>-0.2236328125</v>
+        <v>-0.74560546875</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -1862,10 +1862,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B135">
-        <v>-0.11181640625</v>
+        <v>-0.74560546875</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -1873,10 +1873,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B136">
-        <v>-0.25</v>
+        <v>-0.333251953125</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -1884,10 +1884,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B137">
-        <v>-0.25</v>
+        <v>-0.333251953125</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B138">
-        <v>-0.25</v>
+        <v>-0.74560546875</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -1906,29 +1906,29 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B139">
-        <v>-0.11181640625</v>
+        <v>-1</v>
       </c>
       <c r="C139">
-        <v>0.36181640625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B140">
         <v>-0.1767578125</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B141">
         <v>-0.2236328125</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B142">
         <v>-0.25</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B143">
         <v>-0.11181640625</v>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B144">
         <v>-0.1767578125</v>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B145">
         <v>-0.1767578125</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B146">
         <v>-0.1767578125</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B147">
         <v>-0.07904052734375</v>
@@ -2005,7 +2005,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B148">
         <v>-0.2236328125</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B149">
         <v>-0.2236328125</v>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B150">
         <v>-0.2236328125</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B151">
         <v>-0.2236328125</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B152">
         <v>-0.07904052734375</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B153">
         <v>-0.1767578125</v>
@@ -2071,10 +2071,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B154">
-        <v>-0.1767578125</v>
+        <v>-0.11181640625</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -2082,10 +2082,10 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B155">
-        <v>-0.1767578125</v>
+        <v>-0.11181640625</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B156">
         <v>-0.11181640625</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B157">
         <v>-0.25</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B158">
         <v>-0.2236328125</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B159">
         <v>-0.1767578125</v>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B160">
         <v>-0.07904052734375</v>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B161">
         <v>-0.25</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B162">
         <v>-0.25</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B163">
         <v>-0.25</v>
@@ -2181,32 +2181,32 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B164">
         <v>-1.099609375</v>
       </c>
       <c r="C164">
-        <v>0.36761474609375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B165">
-        <v>-0.2080078125</v>
+        <v>-0.83203125</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>1.6640625</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B166">
-        <v>-0.0693359375</v>
+        <v>-0.27734375</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -2214,10 +2214,10 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B167">
-        <v>-0.0693359375</v>
+        <v>-0.27734375</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B168">
-        <v>-0.2080078125</v>
+        <v>-0.83203125</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -2236,21 +2236,21 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B169">
-        <v>-1</v>
+        <v>-0.83203125</v>
       </c>
       <c r="C169">
-        <v>0.416015625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B170">
-        <v>-0.25</v>
+        <v>-0.27734375</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -2258,10 +2258,10 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B171">
-        <v>-0.1767578125</v>
+        <v>-0.27734375</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -2269,10 +2269,10 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B172">
-        <v>-0.1767578125</v>
+        <v>-0.27734375</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -2280,10 +2280,10 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B173">
-        <v>-0.1767578125</v>
+        <v>-0.27734375</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -2291,10 +2291,10 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B174">
-        <v>-0.1767578125</v>
+        <v>-0.83203125</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -2302,10 +2302,10 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B175">
-        <v>-0.25</v>
+        <v>-0.83203125</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -2313,32 +2313,32 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B176">
-        <v>-1</v>
+        <v>-0.83203125</v>
       </c>
       <c r="C176">
-        <v>0.603515625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B177">
-        <v>-0.125</v>
+        <v>-0.5</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>1.4140625</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B178">
-        <v>-0.125</v>
+        <v>-0.5</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -2346,21 +2346,21 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B179">
-        <v>-1</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C179">
-        <v>0.353515625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B180">
-        <v>-0.25</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -2368,10 +2368,10 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B181">
-        <v>-0.085693359375</v>
+        <v>-1</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -2379,21 +2379,21 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B182">
-        <v>-0.06060791015625</v>
+        <v>-0.94873046875</v>
       </c>
       <c r="C182">
-        <v>0.36480712890625</v>
+        <v>1.154296875</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B183">
-        <v>-0.11181640625</v>
+        <v>-0.89453125</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -2401,10 +2401,10 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B184">
-        <v>-0.11181640625</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -2412,43 +2412,43 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B185">
-        <v>-0.11181640625</v>
+        <v>-0.5546875</v>
       </c>
       <c r="C185">
-        <v>0</v>
+        <v>1.1748046875</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B186">
-        <v>-0.1580810546875</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C186">
-        <v>0.2698974609375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B187">
-        <v>-0.25</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C187">
-        <v>0</v>
+        <v>1.730224609375</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B188">
-        <v>-0.1767578125</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -2456,10 +2456,10 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B189">
-        <v>-0.1767578125</v>
+        <v>-0.316162109375</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -2467,32 +2467,32 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B190">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B191">
-        <v>-0.11181640625</v>
+        <v>-0.262451171875</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B192">
-        <v>-0.1767578125</v>
+        <v>-0.1856689453125</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -2500,10 +2500,10 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B193">
-        <v>-0.1767578125</v>
+        <v>-0.1856689453125</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B194">
-        <v>-0.1767578125</v>
+        <v>-0.1856689453125</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -2522,10 +2522,10 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B195">
-        <v>-0.1767578125</v>
+        <v>-0.1856689453125</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -2533,10 +2533,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B196">
-        <v>-0.11181640625</v>
+        <v>-0.262451171875</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -2544,10 +2544,10 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B197">
-        <v>-0.11181640625</v>
+        <v>-0.262451171875</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -2555,10 +2555,10 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B198">
-        <v>-0.1767578125</v>
+        <v>-0.1856689453125</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -2566,10 +2566,10 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B199">
-        <v>-0.1767578125</v>
+        <v>-0.1856689453125</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -2577,10 +2577,10 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B200">
-        <v>-0.25</v>
+        <v>-0.262451171875</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -2588,10 +2588,10 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B201">
-        <v>-0.1767578125</v>
+        <v>-0.262451171875</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -2599,10 +2599,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B202">
-        <v>-0.1767578125</v>
+        <v>-0.262451171875</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -2610,10 +2610,10 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B203">
-        <v>-0.11181640625</v>
+        <v>-0.262451171875</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -2621,10 +2621,10 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B204">
-        <v>-0.11181640625</v>
+        <v>-0.262451171875</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -2632,10 +2632,10 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B205">
-        <v>-0.1767578125</v>
+        <v>-1</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -2646,10 +2646,10 @@
         <v>38</v>
       </c>
       <c r="B206">
-        <v>-0.1767578125</v>
+        <v>-1</v>
       </c>
       <c r="C206">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2660,15 +2660,15 @@
         <v>-1</v>
       </c>
       <c r="C207">
-        <v>0.32904052734375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B208">
-        <v>-0.1392822265625</v>
+        <v>-0.89453125</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -2676,10 +2676,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B209">
-        <v>-0.1392822265625</v>
+        <v>-0.89453125</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -2687,10 +2687,10 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B210">
-        <v>-0.1392822265625</v>
+        <v>-1</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -2698,10 +2698,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B211">
-        <v>-0.236572265625</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -2709,10 +2709,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B212">
-        <v>-0.25</v>
+        <v>-0.89453125</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -2720,10 +2720,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B213">
-        <v>-0.25</v>
+        <v>-0.9482421875</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -2731,10 +2731,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B214">
-        <v>-0.236572265625</v>
+        <v>-0.9482421875</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -2742,10 +2742,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B215">
-        <v>-0.236572265625</v>
+        <v>-1</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -2753,10 +2753,10 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B216">
-        <v>-0.236572265625</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -2764,10 +2764,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B217">
-        <v>-0.1392822265625</v>
+        <v>-0.89453125</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -2775,21 +2775,21 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B218">
         <v>-1</v>
       </c>
       <c r="C218">
-        <v>0.34283447265625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B219">
-        <v>-0.155029296875</v>
+        <v>-1</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -2797,10 +2797,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B220">
-        <v>-0.0693359375</v>
+        <v>-0.89453125</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -2808,10 +2808,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B221">
-        <v>-0.0693359375</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -2819,10 +2819,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B222">
-        <v>-0.0980224609375</v>
+        <v>-0.5</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -2830,51 +2830,51 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B223">
-        <v>-0.0693359375</v>
+        <v>-1</v>
       </c>
       <c r="C223">
-        <v>0</v>
+        <v>1.447265625</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B224">
-        <v>-0.155029296875</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C224">
-        <v>0.2530517578125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B225">
-        <v>-0.1976318359375</v>
+        <v>-0.79052734375</v>
       </c>
       <c r="C225">
-        <v>0</v>
+        <v>1.5810546875</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B226">
-        <v>-0.1976318359375</v>
+        <v>-0.79052734375</v>
       </c>
       <c r="C226">
-        <v>0.395263671875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B227">
         <v>-1</v>
@@ -2885,21 +2885,21 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B228">
-        <v>-1</v>
+        <v>-0.353515625</v>
       </c>
       <c r="C228">
-        <v>0.3226318359375</v>
+        <v>1.353515625</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B229">
-        <v>-0.1500244140625</v>
+        <v>-1</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -2907,21 +2907,21 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B230">
-        <v>-0.1500244140625</v>
+        <v>-0.316162109375</v>
       </c>
       <c r="C230">
-        <v>0</v>
+        <v>2.213623046875</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B231">
-        <v>-0.1802978515625</v>
+        <v>-0.316162109375</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -2929,10 +2929,10 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B232">
-        <v>-0.1802978515625</v>
+        <v>-0.316162109375</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -2940,10 +2940,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B233">
-        <v>-0.1500244140625</v>
+        <v>-0.94873046875</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -2951,10 +2951,10 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B234">
-        <v>-0.1500244140625</v>
+        <v>-0.94873046875</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -2962,10 +2962,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B235">
-        <v>-0.1580810546875</v>
+        <v>-0.316162109375</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -2973,10 +2973,10 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B236">
-        <v>-0.1580810546875</v>
+        <v>-0.316162109375</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -2984,10 +2984,10 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B237">
-        <v>-0.1500244140625</v>
+        <v>-0.94873046875</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -2995,10 +2995,10 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B238">
-        <v>-0.1500244140625</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -3006,10 +3006,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B239">
-        <v>-0.1802978515625</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -3017,10 +3017,10 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B240">
-        <v>-0.04998779296875</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -3028,10 +3028,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B241">
-        <v>-0.04998779296875</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -3039,10 +3039,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B242">
-        <v>-0.1802978515625</v>
+        <v>-0.94873046875</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -3050,10 +3050,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B243">
-        <v>-0.1580810546875</v>
+        <v>-0.316162109375</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -3061,10 +3061,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B244">
-        <v>-0.04998779296875</v>
+        <v>-0.316162109375</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -3072,10 +3072,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B245">
-        <v>-0.1802978515625</v>
+        <v>-0.94873046875</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -3083,10 +3083,10 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B246">
-        <v>-0.1802978515625</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C246">
         <v>0</v>
@@ -3094,10 +3094,10 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B247">
-        <v>-0.04998779296875</v>
+        <v>-0.89453125</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -3108,10 +3108,10 @@
         <v>44</v>
       </c>
       <c r="B248">
-        <v>-0.04998779296875</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C248">
-        <v>0</v>
+        <v>1.6015625</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3119,18 +3119,18 @@
         <v>44</v>
       </c>
       <c r="B249">
-        <v>-0.0706787109375</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C249">
-        <v>0.2509765625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B250">
-        <v>-0.07904052734375</v>
+        <v>-1</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -3138,10 +3138,10 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B251">
-        <v>-0.11181640625</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -3149,10 +3149,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B252">
-        <v>-0.11181640625</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -3160,10 +3160,10 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B253">
-        <v>-0.07904052734375</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -3171,65 +3171,65 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B254">
-        <v>-1</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C254">
-        <v>0.30963134765625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B255">
-        <v>-1</v>
+        <v>-0.89453125</v>
       </c>
       <c r="C255">
-        <v>0.27734375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B256">
-        <v>-1</v>
+        <v>-0.5419921875</v>
       </c>
       <c r="C256">
-        <v>0.4423828125</v>
+        <v>1.5419921875</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B257">
-        <v>-1</v>
+        <v>-0.685546875</v>
       </c>
       <c r="C257">
-        <v>0.31060791015625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B258">
         <v>-1</v>
       </c>
       <c r="C258">
-        <v>0.35302734375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B259">
-        <v>-0.146728515625</v>
+        <v>-0.5419921875</v>
       </c>
       <c r="C259">
         <v>0</v>
@@ -3237,10 +3237,10 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B260">
-        <v>-0.103759765625</v>
+        <v>-0.685546875</v>
       </c>
       <c r="C260">
         <v>0</v>
@@ -3248,10 +3248,10 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B261">
-        <v>-0.046417236328125</v>
+        <v>-0.5419921875</v>
       </c>
       <c r="C261">
         <v>0</v>
@@ -3259,21 +3259,21 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B262">
-        <v>-0.1312255859375</v>
+        <v>-0.72705078125</v>
       </c>
       <c r="C262">
-        <v>0</v>
+        <v>1.5419921875</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B263">
-        <v>-0.146728515625</v>
+        <v>-0.72705078125</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -3281,21 +3281,21 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B264">
-        <v>-1</v>
+        <v>-0.5419921875</v>
       </c>
       <c r="C264">
-        <v>0.3140869140625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B265">
-        <v>-0.11785888671875</v>
+        <v>-1</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -3303,21 +3303,21 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B266">
-        <v>-0.11785888671875</v>
+        <v>-0.25</v>
       </c>
       <c r="C266">
-        <v>0</v>
+        <v>1.1513671875</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B267">
-        <v>-0.11785888671875</v>
+        <v>-0.9013671875</v>
       </c>
       <c r="C267">
         <v>0</v>
@@ -3325,43 +3325,43 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B268">
-        <v>-0.11785888671875</v>
+        <v>-1</v>
       </c>
       <c r="C268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B269">
         <v>-1</v>
       </c>
       <c r="C269">
-        <v>0.28448486328125</v>
+        <v>1.89453125</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B270">
         <v>-1</v>
       </c>
       <c r="C270">
-        <v>0.388671875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B271">
-        <v>-0.138671875</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C271">
         <v>0</v>
@@ -3369,10 +3369,10 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B272">
-        <v>-0.138671875</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -3380,10 +3380,10 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B273">
-        <v>-0.155029296875</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -3391,10 +3391,10 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B274">
-        <v>-0.0693359375</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C274">
         <v>0</v>
@@ -3402,10 +3402,10 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B275">
-        <v>-0.0693359375</v>
+        <v>-1</v>
       </c>
       <c r="C275">
         <v>0</v>
@@ -3413,21 +3413,21 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B276">
-        <v>-0.0693359375</v>
+        <v>-0.39990234375</v>
       </c>
       <c r="C276">
-        <v>0</v>
+        <v>1.199951171875</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B277">
-        <v>-0.0693359375</v>
+        <v>-0.39990234375</v>
       </c>
       <c r="C277">
         <v>0</v>
@@ -3435,10 +3435,10 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B278">
-        <v>-0.0693359375</v>
+        <v>-0.39990234375</v>
       </c>
       <c r="C278">
         <v>0</v>
@@ -3446,10 +3446,10 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B279">
-        <v>-0.138671875</v>
+        <v>-0.28271484375</v>
       </c>
       <c r="C279">
         <v>0</v>
@@ -3457,10 +3457,10 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B280">
-        <v>-0.138671875</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C280">
         <v>0</v>
@@ -3468,21 +3468,21 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B281">
-        <v>-0.0693359375</v>
+        <v>-1</v>
       </c>
       <c r="C281">
-        <v>0</v>
+        <v>1.321533203125</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B282">
-        <v>-0.155029296875</v>
+        <v>-0.52734375</v>
       </c>
       <c r="C282">
         <v>0</v>
@@ -3490,21 +3490,21 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B283">
-        <v>-0.138671875</v>
+        <v>-1</v>
       </c>
       <c r="C283">
-        <v>0</v>
+        <v>1.333251953125</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B284">
-        <v>-0.138671875</v>
+        <v>-0.74560546875</v>
       </c>
       <c r="C284">
         <v>0</v>
@@ -3512,10 +3512,10 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B285">
-        <v>-0.138671875</v>
+        <v>-0.471435546875</v>
       </c>
       <c r="C285">
         <v>0</v>
@@ -3523,10 +3523,10 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B286">
-        <v>-0.09808349609375</v>
+        <v>-1</v>
       </c>
       <c r="C286">
         <v>0</v>
@@ -3534,10 +3534,10 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B287">
-        <v>-0.09808349609375</v>
+        <v>-1</v>
       </c>
       <c r="C287">
         <v>0</v>
@@ -3545,10 +3545,10 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B288">
-        <v>-0.138671875</v>
+        <v>-1</v>
       </c>
       <c r="C288">
         <v>0</v>
@@ -3556,10 +3556,10 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B289">
-        <v>-0.155029296875</v>
+        <v>-0.333251953125</v>
       </c>
       <c r="C289">
         <v>0</v>
@@ -3570,10 +3570,10 @@
         <v>53</v>
       </c>
       <c r="B290">
-        <v>-0.0693359375</v>
+        <v>-0.242431640625</v>
       </c>
       <c r="C290">
-        <v>0</v>
+        <v>1.116455078125</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3581,18 +3581,18 @@
         <v>53</v>
       </c>
       <c r="B291">
-        <v>-0.155029296875</v>
+        <v>-0.3427734375</v>
       </c>
       <c r="C291">
-        <v>0.293701171875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B292">
-        <v>-0.2452392578125</v>
+        <v>-0.3427734375</v>
       </c>
       <c r="C292">
         <v>0</v>
@@ -3600,10 +3600,10 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B293">
-        <v>-0.2452392578125</v>
+        <v>-0.3427734375</v>
       </c>
       <c r="C293">
         <v>0</v>
@@ -3611,10 +3611,10 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B294">
-        <v>-0.2452392578125</v>
+        <v>-0.3427734375</v>
       </c>
       <c r="C294">
         <v>0</v>
@@ -3622,21 +3622,21 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B295">
-        <v>-0.0693359375</v>
+        <v>-0.242431640625</v>
       </c>
       <c r="C295">
-        <v>0.3145751953125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B296">
-        <v>-0.21923828125</v>
+        <v>-0.5419921875</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -3644,65 +3644,65 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B297">
-        <v>-0.21923828125</v>
+        <v>-1</v>
       </c>
       <c r="C297">
-        <v>0.4080810546875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B298">
         <v>-1</v>
       </c>
       <c r="C298">
-        <v>0.251312255859375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B299">
-        <v>-1</v>
+        <v>-0.316162109375</v>
       </c>
       <c r="C299">
-        <v>0.32904052734375</v>
+        <v>1.316162109375</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B300">
-        <v>-1</v>
+        <v>-0.316162109375</v>
       </c>
       <c r="C300">
-        <v>0.257232666015625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B301">
         <v>-1</v>
       </c>
       <c r="C301">
-        <v>0.27734375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B302">
-        <v>-0.046417236328125</v>
+        <v>-0.94873046875</v>
       </c>
       <c r="C302">
         <v>0</v>
@@ -3710,10 +3710,10 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B303">
-        <v>-0.09283447265625</v>
+        <v>-0.316162109375</v>
       </c>
       <c r="C303">
         <v>0</v>
@@ -3721,10 +3721,10 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B304">
-        <v>-0.06561279296875</v>
+        <v>-0.94873046875</v>
       </c>
       <c r="C304">
         <v>0</v>
@@ -3732,21 +3732,21 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B305">
-        <v>-0.146728515625</v>
+        <v>-0.1715087890625</v>
       </c>
       <c r="C305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B306">
-        <v>-0.046417236328125</v>
+        <v>-0.1715087890625</v>
       </c>
       <c r="C306">
         <v>0</v>
@@ -3754,10 +3754,10 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B307">
-        <v>-0.103759765625</v>
+        <v>-0.383544921875</v>
       </c>
       <c r="C307">
         <v>0</v>
@@ -3765,10 +3765,10 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B308">
-        <v>-0.09283447265625</v>
+        <v>-0.343017578125</v>
       </c>
       <c r="C308">
         <v>0</v>
@@ -3776,10 +3776,10 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B309">
-        <v>-0.09283447265625</v>
+        <v>-0.343017578125</v>
       </c>
       <c r="C309">
         <v>0</v>
@@ -3787,10 +3787,10 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B310">
-        <v>-0.06561279296875</v>
+        <v>-0.6181640625</v>
       </c>
       <c r="C310">
         <v>0</v>
@@ -3798,21 +3798,21 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B311">
-        <v>-0.06561279296875</v>
+        <v>-1</v>
       </c>
       <c r="C311">
-        <v>0</v>
+        <v>1.1943359375</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B312">
-        <v>-0.09283447265625</v>
+        <v>-1</v>
       </c>
       <c r="C312">
         <v>0</v>
@@ -3820,10 +3820,10 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B313">
-        <v>-0.09283447265625</v>
+        <v>-1</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -3831,10 +3831,10 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B314">
-        <v>-0.09283447265625</v>
+        <v>-0.55712890625</v>
       </c>
       <c r="C314">
         <v>0</v>
@@ -3842,10 +3842,10 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B315">
-        <v>-0.046417236328125</v>
+        <v>-0.66943359375</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -3853,21 +3853,21 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B316">
-        <v>-0.046417236328125</v>
+        <v>-0.353515625</v>
       </c>
       <c r="C316">
-        <v>0</v>
+        <v>1.2548828125</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B317">
-        <v>-0.046417236328125</v>
+        <v>-0.353515625</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -3875,21 +3875,21 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B318">
-        <v>-1</v>
+        <v>-0.353515625</v>
       </c>
       <c r="C318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B319">
-        <v>-0.155029296875</v>
+        <v>-0.55908203125</v>
       </c>
       <c r="C319">
         <v>0</v>
@@ -3897,32 +3897,32 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B320">
-        <v>-0.21923828125</v>
+        <v>-1</v>
       </c>
       <c r="C320">
-        <v>0.374267578125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B321">
-        <v>-0.2236328125</v>
+        <v>-0.89453125</v>
       </c>
       <c r="C321">
-        <v>0</v>
+        <v>1.52685546875</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B322">
-        <v>-0.11181640625</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C322">
         <v>0</v>
@@ -3930,10 +3930,10 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B323">
-        <v>-0.11181640625</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C323">
         <v>0</v>
@@ -3941,10 +3941,10 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B324">
-        <v>-0.2236328125</v>
+        <v>-0.89453125</v>
       </c>
       <c r="C324">
         <v>0</v>
@@ -3952,10 +3952,10 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B325">
-        <v>-0.2236328125</v>
+        <v>-0.89453125</v>
       </c>
       <c r="C325">
         <v>0</v>
@@ -3963,10 +3963,10 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B326">
-        <v>-0.2236328125</v>
+        <v>-0.89453125</v>
       </c>
       <c r="C326">
         <v>0</v>
@@ -3974,10 +3974,10 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B327">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="C327">
         <v>0</v>
@@ -3985,10 +3985,10 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B328">
-        <v>-0.11181640625</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C328">
         <v>0</v>
@@ -3996,10 +3996,10 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B329">
-        <v>-0.2236328125</v>
+        <v>-0.89453125</v>
       </c>
       <c r="C329">
         <v>0</v>
@@ -4007,10 +4007,10 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B330">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="C330">
         <v>0</v>
@@ -4018,10 +4018,10 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B331">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="C331">
         <v>0</v>
@@ -4029,10 +4029,10 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B332">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="C332">
         <v>0</v>
@@ -4040,10 +4040,10 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B333">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="C333">
         <v>0</v>
@@ -4051,10 +4051,10 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B334">
-        <v>-0.2236328125</v>
+        <v>-0.89453125</v>
       </c>
       <c r="C334">
         <v>0</v>
@@ -4062,10 +4062,10 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B335">
-        <v>-0.2236328125</v>
+        <v>-0.89453125</v>
       </c>
       <c r="C335">
         <v>0</v>
@@ -4073,10 +4073,10 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B336">
-        <v>-0.2236328125</v>
+        <v>-0.89453125</v>
       </c>
       <c r="C336">
         <v>0</v>
@@ -4084,10 +4084,10 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B337">
-        <v>-0.11181640625</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C337">
         <v>0</v>
@@ -4095,10 +4095,10 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B338">
-        <v>-0.11181640625</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C338">
         <v>0</v>
@@ -4106,10 +4106,10 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B339">
-        <v>-0.2236328125</v>
+        <v>-0.89453125</v>
       </c>
       <c r="C339">
         <v>0</v>
@@ -4117,10 +4117,10 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B340">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="C340">
         <v>0</v>
@@ -4128,10 +4128,10 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B341">
-        <v>-0.1580810546875</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C341">
         <v>0</v>
@@ -4139,32 +4139,32 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B342">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="C342">
-        <v>0.3817138671875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B343">
-        <v>-0.155029296875</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C343">
-        <v>0</v>
+        <v>1.4521484375</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B344">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="C344">
         <v>0</v>
@@ -4172,54 +4172,54 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B345">
-        <v>-0.138671875</v>
+        <v>-0.5546875</v>
       </c>
       <c r="C345">
-        <v>0.363037109375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B346">
         <v>-1</v>
       </c>
       <c r="C346">
-        <v>0.25048828125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B347">
-        <v>-0.049041748046875</v>
+        <v>-1</v>
       </c>
       <c r="C347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B348">
-        <v>-0.049041748046875</v>
+        <v>-0.94873046875</v>
       </c>
       <c r="C348">
-        <v>0</v>
+        <v>1.63232421875</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B349">
-        <v>-0.049041748046875</v>
+        <v>-0.94873046875</v>
       </c>
       <c r="C349">
         <v>0</v>
@@ -4227,10 +4227,10 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B350">
-        <v>-0.049041748046875</v>
+        <v>-0.63232421875</v>
       </c>
       <c r="C350">
         <v>0</v>
@@ -4238,10 +4238,10 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B351">
-        <v>-0.049041748046875</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C351">
         <v>0</v>
@@ -4249,10 +4249,10 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B352">
-        <v>-0.049041748046875</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C352">
         <v>0</v>
@@ -4260,13 +4260,13 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B353">
-        <v>-0.049041748046875</v>
+        <v>-1</v>
       </c>
       <c r="C353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4274,10 +4274,10 @@
         <v>65</v>
       </c>
       <c r="B354">
-        <v>-0.049041748046875</v>
+        <v>-0.27734375</v>
       </c>
       <c r="C354">
-        <v>0</v>
+        <v>1.4970703125</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4285,18 +4285,18 @@
         <v>65</v>
       </c>
       <c r="B355">
-        <v>-1</v>
+        <v>-0.27734375</v>
       </c>
       <c r="C355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B356">
-        <v>-0.1767578125</v>
+        <v>-0.876953125</v>
       </c>
       <c r="C356">
         <v>0</v>
@@ -4304,10 +4304,10 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B357">
-        <v>-0.1767578125</v>
+        <v>-1</v>
       </c>
       <c r="C357">
         <v>0</v>
@@ -4318,18 +4318,18 @@
         <v>66</v>
       </c>
       <c r="B358">
-        <v>-1</v>
+        <v>-0.316162109375</v>
       </c>
       <c r="C358">
-        <v>0.353515625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B359">
-        <v>-0.17138671875</v>
+        <v>-0.2236328125</v>
       </c>
       <c r="C359">
         <v>0</v>
@@ -4337,10 +4337,10 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B360">
-        <v>-0.135498046875</v>
+        <v>-0.2236328125</v>
       </c>
       <c r="C360">
         <v>0</v>
@@ -4348,21 +4348,21 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B361">
-        <v>-0.085693359375</v>
+        <v>-0.2236328125</v>
       </c>
       <c r="C361">
-        <v>0.3531494140625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B362">
-        <v>-0.0980224609375</v>
+        <v>-0.2236328125</v>
       </c>
       <c r="C362">
         <v>0</v>
@@ -4370,10 +4370,10 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B363">
-        <v>-0.0980224609375</v>
+        <v>-0.2236328125</v>
       </c>
       <c r="C363">
         <v>0</v>
@@ -4381,10 +4381,10 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B364">
-        <v>-0.0980224609375</v>
+        <v>-0.2236328125</v>
       </c>
       <c r="C364">
         <v>0</v>
@@ -4392,10 +4392,10 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B365">
-        <v>-0.138671875</v>
+        <v>-0.2236328125</v>
       </c>
       <c r="C365">
         <v>0</v>
@@ -4403,10 +4403,10 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B366">
-        <v>-0.25</v>
+        <v>-0.2236328125</v>
       </c>
       <c r="C366">
         <v>0</v>
@@ -4414,10 +4414,10 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B367">
-        <v>-0.2080078125</v>
+        <v>-0.316162109375</v>
       </c>
       <c r="C367">
         <v>0</v>
@@ -4425,10 +4425,10 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B368">
-        <v>-0.0980224609375</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C368">
         <v>0</v>
@@ -4436,21 +4436,21 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B369">
-        <v>-0.0980224609375</v>
+        <v>-0.75</v>
       </c>
       <c r="C369">
-        <v>0</v>
+        <v>1.26611328125</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B370">
-        <v>-0.138671875</v>
+        <v>-1</v>
       </c>
       <c r="C370">
         <v>0</v>
@@ -4461,29 +4461,29 @@
         <v>68</v>
       </c>
       <c r="B371">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="C371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B372">
-        <v>-0.25</v>
+        <v>-0.7841796875</v>
       </c>
       <c r="C372">
-        <v>0</v>
+        <v>2.4931640625</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B373">
-        <v>-0.25</v>
+        <v>-0.7841796875</v>
       </c>
       <c r="C373">
         <v>0</v>
@@ -4491,10 +4491,10 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B374">
-        <v>-0.25</v>
+        <v>-0.7841796875</v>
       </c>
       <c r="C374">
         <v>0</v>
@@ -4502,10 +4502,10 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B375">
-        <v>-0.25</v>
+        <v>-0.7841796875</v>
       </c>
       <c r="C375">
         <v>0</v>
@@ -4513,10 +4513,10 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B376">
-        <v>-0.25</v>
+        <v>-0.7841796875</v>
       </c>
       <c r="C376">
         <v>0</v>
@@ -4524,10 +4524,10 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B377">
-        <v>-0.138671875</v>
+        <v>-0.876953125</v>
       </c>
       <c r="C377">
         <v>0</v>
@@ -4535,10 +4535,10 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B378">
-        <v>-0.2080078125</v>
+        <v>-0.83203125</v>
       </c>
       <c r="C378">
         <v>0</v>
@@ -4546,21 +4546,21 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B379">
-        <v>-0.25</v>
+        <v>-0.625</v>
       </c>
       <c r="C379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B380">
-        <v>-0.25</v>
+        <v>-0.625</v>
       </c>
       <c r="C380">
         <v>0</v>
@@ -4568,10 +4568,10 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B381">
-        <v>-0.25</v>
+        <v>-0.349365234375</v>
       </c>
       <c r="C381">
         <v>0</v>
@@ -4579,10 +4579,10 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B382">
-        <v>-0.138671875</v>
+        <v>-0.349365234375</v>
       </c>
       <c r="C382">
         <v>0</v>
@@ -4590,10 +4590,10 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B383">
-        <v>-0.138671875</v>
+        <v>-0.78076171875</v>
       </c>
       <c r="C383">
         <v>0</v>
@@ -4601,21 +4601,21 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B384">
-        <v>-0.138671875</v>
+        <v>-0.48486328125</v>
       </c>
       <c r="C384">
-        <v>0</v>
+        <v>1.1715087890625</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B385">
-        <v>-0.138671875</v>
+        <v>-0.48486328125</v>
       </c>
       <c r="C385">
         <v>0</v>
@@ -4623,32 +4623,32 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B386">
-        <v>-1.099609375</v>
+        <v>-0.48486328125</v>
       </c>
       <c r="C386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B387">
-        <v>-1</v>
+        <v>-0.48486328125</v>
       </c>
       <c r="C387">
-        <v>0.30426025390625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B388">
-        <v>-0.11181640625</v>
+        <v>-0.1715087890625</v>
       </c>
       <c r="C388">
         <v>0</v>
@@ -4656,65 +4656,65 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B389">
-        <v>-0.2236328125</v>
+        <v>-1</v>
       </c>
       <c r="C389">
-        <v>0.33544921875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B390">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="C390">
-        <v>0</v>
+        <v>1.447265625</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B391">
-        <v>-0.11181640625</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C391">
-        <v>0.36181640625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B392">
         <v>-1</v>
       </c>
       <c r="C392">
-        <v>0.2574462890625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B393">
-        <v>-0.135498046875</v>
+        <v>-0.5419921875</v>
       </c>
       <c r="C393">
-        <v>0</v>
+        <v>1.2275390625</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B394">
-        <v>-0.135498046875</v>
+        <v>-0.5419921875</v>
       </c>
       <c r="C394">
         <v>0</v>
@@ -4722,10 +4722,10 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B395">
-        <v>-0.135498046875</v>
+        <v>-0.5419921875</v>
       </c>
       <c r="C395">
         <v>0</v>
@@ -4733,10 +4733,10 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B396">
-        <v>-0.135498046875</v>
+        <v>-0.5419921875</v>
       </c>
       <c r="C396">
         <v>0</v>
@@ -4744,24 +4744,24 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B397">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="C397">
-        <v>0.306884765625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B398">
-        <v>-1</v>
+        <v>-0.3427734375</v>
       </c>
       <c r="C398">
-        <v>0.30303955078125</v>
+        <v>1.3427734375</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4769,7 +4769,7 @@
         <v>75</v>
       </c>
       <c r="B399">
-        <v>-0.0625</v>
+        <v>-1</v>
       </c>
       <c r="C399">
         <v>0</v>
@@ -4777,21 +4777,21 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B400">
-        <v>-0.08837890625</v>
+        <v>-0.262451171875</v>
       </c>
       <c r="C400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B401">
-        <v>-0.0625</v>
+        <v>-0.4150390625</v>
       </c>
       <c r="C401">
         <v>0</v>
@@ -4799,13 +4799,13 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B402">
-        <v>-1</v>
+        <v>-0.1856689453125</v>
       </c>
       <c r="C402">
-        <v>0.2647705078125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4813,7 +4813,7 @@
         <v>76</v>
       </c>
       <c r="B403">
-        <v>-0.11181640625</v>
+        <v>-0.52490234375</v>
       </c>
       <c r="C403">
         <v>0</v>
@@ -4824,7 +4824,7 @@
         <v>76</v>
       </c>
       <c r="B404">
-        <v>-0.11181640625</v>
+        <v>-0.262451171875</v>
       </c>
       <c r="C404">
         <v>0</v>
@@ -4835,7 +4835,7 @@
         <v>76</v>
       </c>
       <c r="B405">
-        <v>-0.212158203125</v>
+        <v>-0.262451171875</v>
       </c>
       <c r="C405">
         <v>0</v>
@@ -4846,18 +4846,18 @@
         <v>76</v>
       </c>
       <c r="B406">
-        <v>-0.04998779296875</v>
+        <v>-0.4150390625</v>
       </c>
       <c r="C406">
-        <v>0.27362060546875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B407">
-        <v>-0.06561279296875</v>
+        <v>-0.1856689453125</v>
       </c>
       <c r="C407">
         <v>0</v>
@@ -4865,10 +4865,10 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B408">
-        <v>-0.06561279296875</v>
+        <v>-0.1856689453125</v>
       </c>
       <c r="C408">
         <v>0</v>
@@ -4876,32 +4876,32 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B409">
-        <v>-1</v>
+        <v>-0.371337890625</v>
       </c>
       <c r="C409">
-        <v>0.25701904296875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B410">
-        <v>-0.0693359375</v>
+        <v>-0.27734375</v>
       </c>
       <c r="C410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B411">
-        <v>-0.0693359375</v>
+        <v>-0.27734375</v>
       </c>
       <c r="C411">
         <v>0</v>
@@ -4909,10 +4909,10 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B412">
-        <v>-0.0693359375</v>
+        <v>-0.27734375</v>
       </c>
       <c r="C412">
         <v>0</v>
@@ -4920,10 +4920,10 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B413">
-        <v>-0.09808349609375</v>
+        <v>-0.392333984375</v>
       </c>
       <c r="C413">
         <v>0</v>
@@ -4931,10 +4931,10 @@
     </row>
     <row r="414" spans="1:3">
       <c r="A414">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B414">
-        <v>-0.10968017578125</v>
+        <v>-0.438720703125</v>
       </c>
       <c r="C414">
         <v>0</v>
@@ -4942,10 +4942,10 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B415">
-        <v>-0.049041748046875</v>
+        <v>-0.1961669921875</v>
       </c>
       <c r="C415">
         <v>0</v>
@@ -4953,10 +4953,10 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B416">
-        <v>-0.049041748046875</v>
+        <v>-0.1961669921875</v>
       </c>
       <c r="C416">
         <v>0</v>
@@ -4964,10 +4964,10 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B417">
-        <v>-0.10968017578125</v>
+        <v>-0.438720703125</v>
       </c>
       <c r="C417">
         <v>0</v>
@@ -4975,10 +4975,10 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B418">
-        <v>-0.155029296875</v>
+        <v>-0.6201171875</v>
       </c>
       <c r="C418">
         <v>0</v>
@@ -4986,10 +4986,10 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B419">
-        <v>-0.10968017578125</v>
+        <v>-0.438720703125</v>
       </c>
       <c r="C419">
         <v>0</v>
@@ -4997,24 +4997,24 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B420">
-        <v>-0.1470947265625</v>
+        <v>-0.58837890625</v>
       </c>
       <c r="C420">
-        <v>0.25677490234375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B421">
-        <v>-0.2371826171875</v>
+        <v>-1</v>
       </c>
       <c r="C421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5022,10 +5022,10 @@
         <v>79</v>
       </c>
       <c r="B422">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="C422">
-        <v>0.4871826171875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5033,10 +5033,10 @@
         <v>80</v>
       </c>
       <c r="B423">
-        <v>-0.2430419921875</v>
+        <v>-0.97216796875</v>
       </c>
       <c r="C423">
-        <v>0</v>
+        <v>1.5166015625</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5044,7 +5044,7 @@
         <v>80</v>
       </c>
       <c r="B424">
-        <v>-0.1318359375</v>
+        <v>-0.52734375</v>
       </c>
       <c r="C424">
         <v>0</v>
@@ -5055,7 +5055,7 @@
         <v>80</v>
       </c>
       <c r="B425">
-        <v>-0.058929443359375</v>
+        <v>-0.2357177734375</v>
       </c>
       <c r="C425">
         <v>0</v>
@@ -5066,10 +5066,10 @@
         <v>80</v>
       </c>
       <c r="B426">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="C426">
-        <v>0.3818359375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5077,10 +5077,10 @@
         <v>81</v>
       </c>
       <c r="B427">
-        <v>-0.1817626953125</v>
+        <v>-0.72705078125</v>
       </c>
       <c r="C427">
-        <v>0</v>
+        <v>1.60107421875</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5088,7 +5088,7 @@
         <v>81</v>
       </c>
       <c r="B428">
-        <v>-0.17138671875</v>
+        <v>-0.685546875</v>
       </c>
       <c r="C428">
         <v>0</v>
@@ -5099,7 +5099,7 @@
         <v>81</v>
       </c>
       <c r="B429">
-        <v>-0.135498046875</v>
+        <v>-0.5419921875</v>
       </c>
       <c r="C429">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>81</v>
       </c>
       <c r="B430">
-        <v>-0.1817626953125</v>
+        <v>-0.72705078125</v>
       </c>
       <c r="C430">
         <v>0</v>
@@ -5121,7 +5121,7 @@
         <v>81</v>
       </c>
       <c r="B431">
-        <v>-0.17138671875</v>
+        <v>-0.685546875</v>
       </c>
       <c r="C431">
         <v>0</v>
@@ -5132,7 +5132,7 @@
         <v>81</v>
       </c>
       <c r="B432">
-        <v>-0.17138671875</v>
+        <v>-0.685546875</v>
       </c>
       <c r="C432">
         <v>0</v>
@@ -5143,7 +5143,7 @@
         <v>81</v>
       </c>
       <c r="B433">
-        <v>-0.17138671875</v>
+        <v>-0.685546875</v>
       </c>
       <c r="C433">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>81</v>
       </c>
       <c r="B434">
-        <v>-0.135498046875</v>
+        <v>-0.5419921875</v>
       </c>
       <c r="C434">
         <v>0</v>
@@ -5165,7 +5165,7 @@
         <v>81</v>
       </c>
       <c r="B435">
-        <v>-0.1817626953125</v>
+        <v>-0.72705078125</v>
       </c>
       <c r="C435">
         <v>0</v>
@@ -5176,7 +5176,7 @@
         <v>81</v>
       </c>
       <c r="B436">
-        <v>-0.17138671875</v>
+        <v>-0.685546875</v>
       </c>
       <c r="C436">
         <v>0</v>
@@ -5187,7 +5187,7 @@
         <v>81</v>
       </c>
       <c r="B437">
-        <v>-0.17138671875</v>
+        <v>-0.685546875</v>
       </c>
       <c r="C437">
         <v>0</v>
@@ -5198,7 +5198,7 @@
         <v>81</v>
       </c>
       <c r="B438">
-        <v>-0.17138671875</v>
+        <v>-0.685546875</v>
       </c>
       <c r="C438">
         <v>0</v>
@@ -5209,7 +5209,7 @@
         <v>81</v>
       </c>
       <c r="B439">
-        <v>-0.17138671875</v>
+        <v>-0.685546875</v>
       </c>
       <c r="C439">
         <v>0</v>
@@ -5220,10 +5220,10 @@
         <v>81</v>
       </c>
       <c r="B440">
-        <v>-0.218505859375</v>
+        <v>-0.8740234375</v>
       </c>
       <c r="C440">
-        <v>0.4002685546875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5231,18 +5231,18 @@
         <v>82</v>
       </c>
       <c r="B441">
-        <v>-1</v>
+        <v>-0.94873046875</v>
       </c>
       <c r="C441">
-        <v>0.4267578125</v>
+        <v>1.39599609375</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B442">
-        <v>-0.167724609375</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C442">
         <v>0</v>
@@ -5250,21 +5250,21 @@
     </row>
     <row r="443" spans="1:3">
       <c r="A443">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B443">
-        <v>-0.2236328125</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C443">
-        <v>0.305908203125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B444">
-        <v>-0.146728515625</v>
+        <v>-0.94873046875</v>
       </c>
       <c r="C444">
         <v>0</v>
@@ -5272,10 +5272,10 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B445">
-        <v>-0.103759765625</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C445">
         <v>0</v>
@@ -5283,21 +5283,21 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B446">
-        <v>-0.09283447265625</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C446">
-        <v>0.25048828125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B447">
-        <v>-0.218505859375</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C447">
         <v>0</v>
@@ -5305,10 +5305,10 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B448">
-        <v>-0.191650390625</v>
+        <v>-0.89453125</v>
       </c>
       <c r="C448">
         <v>0</v>
@@ -5316,10 +5316,10 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B449">
-        <v>-0.191650390625</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C449">
         <v>0</v>
@@ -5327,21 +5327,21 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B450">
-        <v>-0.218505859375</v>
+        <v>-1</v>
       </c>
       <c r="C450">
-        <v>0.3636474609375</v>
+        <v>2.6884765625</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B451">
-        <v>-0.1767578125</v>
+        <v>-1</v>
       </c>
       <c r="C451">
         <v>0</v>
@@ -5349,10 +5349,10 @@
     </row>
     <row r="452" spans="1:3">
       <c r="A452">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B452">
-        <v>-0.1767578125</v>
+        <v>-1</v>
       </c>
       <c r="C452">
         <v>0</v>
@@ -5360,10 +5360,10 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B453">
-        <v>-0.1767578125</v>
+        <v>-0.74560546875</v>
       </c>
       <c r="C453">
         <v>0</v>
@@ -5371,10 +5371,10 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B454">
-        <v>-0.1767578125</v>
+        <v>-0.94287109375</v>
       </c>
       <c r="C454">
         <v>0</v>
@@ -5382,32 +5382,32 @@
     </row>
     <row r="455" spans="1:3">
       <c r="A455">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B455">
-        <v>-0.1767578125</v>
+        <v>-1</v>
       </c>
       <c r="C455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B456">
-        <v>-0.1767578125</v>
+        <v>-0.316162109375</v>
       </c>
       <c r="C456">
-        <v>0</v>
+        <v>1.730224609375</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B457">
-        <v>-0.1767578125</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C457">
         <v>0</v>
@@ -5415,10 +5415,10 @@
     </row>
     <row r="458" spans="1:3">
       <c r="A458">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B458">
-        <v>-0.1767578125</v>
+        <v>-0.70703125</v>
       </c>
       <c r="C458">
         <v>0</v>
@@ -5429,18 +5429,18 @@
         <v>86</v>
       </c>
       <c r="B459">
-        <v>-1</v>
+        <v>-0.87744140625</v>
       </c>
       <c r="C459">
-        <v>0.3017578125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B460">
-        <v>-0.25</v>
+        <v>-0.87744140625</v>
       </c>
       <c r="C460">
         <v>0</v>
@@ -5448,10 +5448,10 @@
     </row>
     <row r="461" spans="1:3">
       <c r="A461">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B461">
-        <v>-0.11785888671875</v>
+        <v>-0.392333984375</v>
       </c>
       <c r="C461">
         <v>0</v>
@@ -5459,21 +5459,21 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B462">
-        <v>-0.1318359375</v>
+        <v>-0.392333984375</v>
       </c>
       <c r="C462">
-        <v>0.308929443359375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B463">
-        <v>-0.0980224609375</v>
+        <v>-1</v>
       </c>
       <c r="C463">
         <v>0</v>
@@ -5481,13 +5481,13 @@
     </row>
     <row r="464" spans="1:3">
       <c r="A464">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B464">
-        <v>-0.138671875</v>
+        <v>-1</v>
       </c>
       <c r="C464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5495,18 +5495,18 @@
         <v>88</v>
       </c>
       <c r="B465">
-        <v>-0.155029296875</v>
+        <v>-0.74560546875</v>
       </c>
       <c r="C465">
-        <v>0.2530517578125</v>
+        <v>1.52734375</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B466">
-        <v>-0.25</v>
+        <v>-0.52734375</v>
       </c>
       <c r="C466">
         <v>0</v>
@@ -5514,10 +5514,10 @@
     </row>
     <row r="467" spans="1:3">
       <c r="A467">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B467">
-        <v>-0.07904052734375</v>
+        <v>-0.471435546875</v>
       </c>
       <c r="C467">
         <v>0</v>
@@ -5528,10 +5528,10 @@
         <v>89</v>
       </c>
       <c r="B468">
-        <v>-0.07904052734375</v>
+        <v>-0.5</v>
       </c>
       <c r="C468">
-        <v>0</v>
+        <v>1.2236328125</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5539,18 +5539,18 @@
         <v>89</v>
       </c>
       <c r="B469">
-        <v>-0.1767578125</v>
+        <v>-0.6708984375</v>
       </c>
       <c r="C469">
-        <v>0.4267578125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B470">
-        <v>-0.1976318359375</v>
+        <v>-0.6708984375</v>
       </c>
       <c r="C470">
         <v>0</v>
@@ -5561,29 +5561,29 @@
         <v>90</v>
       </c>
       <c r="B471">
-        <v>-0.1976318359375</v>
+        <v>-1</v>
       </c>
       <c r="C471">
-        <v>0.375</v>
+        <v>2.341796875</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B472">
-        <v>-1</v>
+        <v>-0.447265625</v>
       </c>
       <c r="C472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B473">
-        <v>-0.07904052734375</v>
+        <v>-0.89453125</v>
       </c>
       <c r="C473">
         <v>0</v>
@@ -5591,13 +5591,13 @@
     </row>
     <row r="474" spans="1:3">
       <c r="A474">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B474">
-        <v>-0.167724609375</v>
+        <v>-1</v>
       </c>
       <c r="C474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5605,18 +5605,18 @@
         <v>92</v>
       </c>
       <c r="B475">
-        <v>-0.167724609375</v>
+        <v>-0.39990234375</v>
       </c>
       <c r="C475">
-        <v>0.2698974609375</v>
+        <v>1.12109375</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B476">
-        <v>-0.135498046875</v>
+        <v>-0.72119140625</v>
       </c>
       <c r="C476">
         <v>0</v>
@@ -5627,10 +5627,10 @@
         <v>93</v>
       </c>
       <c r="B477">
-        <v>-0.06060791015625</v>
+        <v>-0.316162109375</v>
       </c>
       <c r="C477">
-        <v>0</v>
+        <v>1.316162109375</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5638,7 +5638,7 @@
         <v>93</v>
       </c>
       <c r="B478">
-        <v>-0.06060791015625</v>
+        <v>-1</v>
       </c>
       <c r="C478">
         <v>0</v>
@@ -5646,21 +5646,21 @@
     </row>
     <row r="479" spans="1:3">
       <c r="A479">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B479">
-        <v>-0.06060791015625</v>
+        <v>-0.316162109375</v>
       </c>
       <c r="C479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B480">
-        <v>-0.06060791015625</v>
+        <v>-0.94873046875</v>
       </c>
       <c r="C480">
         <v>0</v>
@@ -5668,21 +5668,21 @@
     </row>
     <row r="481" spans="1:3">
       <c r="A481">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B481">
-        <v>-0.135498046875</v>
+        <v>-1</v>
       </c>
       <c r="C481">
-        <v>0</v>
+        <v>1.050048828125</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B482">
-        <v>-0.135498046875</v>
+        <v>-1</v>
       </c>
       <c r="C482">
         <v>0</v>
@@ -5690,10 +5690,10 @@
     </row>
     <row r="483" spans="1:3">
       <c r="A483">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B483">
-        <v>-0.17138671875</v>
+        <v>-0.262451171875</v>
       </c>
       <c r="C483">
         <v>0</v>
@@ -5701,10 +5701,10 @@
     </row>
     <row r="484" spans="1:3">
       <c r="A484">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B484">
-        <v>-0.17138671875</v>
+        <v>-0.765625</v>
       </c>
       <c r="C484">
         <v>0</v>
@@ -5712,10 +5712,10 @@
     </row>
     <row r="485" spans="1:3">
       <c r="A485">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B485">
-        <v>-0.06060791015625</v>
+        <v>-1</v>
       </c>
       <c r="C485">
         <v>0</v>
@@ -5723,10 +5723,10 @@
     </row>
     <row r="486" spans="1:3">
       <c r="A486">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B486">
-        <v>-0.06060791015625</v>
+        <v>-1</v>
       </c>
       <c r="C486">
         <v>0</v>
@@ -5734,10 +5734,10 @@
     </row>
     <row r="487" spans="1:3">
       <c r="A487">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B487">
-        <v>-0.135498046875</v>
+        <v>-0.765625</v>
       </c>
       <c r="C487">
         <v>0</v>
@@ -5745,10 +5745,10 @@
     </row>
     <row r="488" spans="1:3">
       <c r="A488">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B488">
-        <v>-0.135498046875</v>
+        <v>-0.765625</v>
       </c>
       <c r="C488">
         <v>0</v>
@@ -5756,10 +5756,10 @@
     </row>
     <row r="489" spans="1:3">
       <c r="A489">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B489">
-        <v>-0.17138671875</v>
+        <v>-0.765625</v>
       </c>
       <c r="C489">
         <v>0</v>
@@ -5767,10 +5767,10 @@
     </row>
     <row r="490" spans="1:3">
       <c r="A490">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B490">
-        <v>-0.17138671875</v>
+        <v>-0.765625</v>
       </c>
       <c r="C490">
         <v>0</v>
@@ -5778,10 +5778,10 @@
     </row>
     <row r="491" spans="1:3">
       <c r="A491">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B491">
-        <v>-0.06060791015625</v>
+        <v>-0.765625</v>
       </c>
       <c r="C491">
         <v>0</v>
@@ -5789,10 +5789,10 @@
     </row>
     <row r="492" spans="1:3">
       <c r="A492">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B492">
-        <v>-0.06060791015625</v>
+        <v>-0.765625</v>
       </c>
       <c r="C492">
         <v>0</v>
@@ -5800,10 +5800,10 @@
     </row>
     <row r="493" spans="1:3">
       <c r="A493">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B493">
-        <v>-0.135498046875</v>
+        <v>-1</v>
       </c>
       <c r="C493">
         <v>0</v>
@@ -5811,10 +5811,10 @@
     </row>
     <row r="494" spans="1:3">
       <c r="A494">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B494">
-        <v>-0.135498046875</v>
+        <v>-0.1856689453125</v>
       </c>
       <c r="C494">
         <v>0</v>
@@ -5822,10 +5822,10 @@
     </row>
     <row r="495" spans="1:3">
       <c r="A495">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B495">
-        <v>-0.135498046875</v>
+        <v>-0.92822265625</v>
       </c>
       <c r="C495">
         <v>0</v>
@@ -5833,21 +5833,21 @@
     </row>
     <row r="496" spans="1:3">
       <c r="A496">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B496">
-        <v>-0.135498046875</v>
+        <v>-0.2357177734375</v>
       </c>
       <c r="C496">
-        <v>0</v>
+        <v>1.52734375</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B497">
-        <v>-0.17138671875</v>
+        <v>-0.333251953125</v>
       </c>
       <c r="C497">
         <v>0</v>
@@ -5855,10 +5855,10 @@
     </row>
     <row r="498" spans="1:3">
       <c r="A498">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B498">
-        <v>-0.135498046875</v>
+        <v>-0.52734375</v>
       </c>
       <c r="C498">
         <v>0</v>
@@ -5866,10 +5866,10 @@
     </row>
     <row r="499" spans="1:3">
       <c r="A499">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B499">
-        <v>-0.135498046875</v>
+        <v>-0.52734375</v>
       </c>
       <c r="C499">
         <v>0</v>
@@ -5877,21 +5877,21 @@
     </row>
     <row r="500" spans="1:3">
       <c r="A500">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B500">
-        <v>-1.099609375</v>
+        <v>-0.52734375</v>
       </c>
       <c r="C500">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B501">
-        <v>-0.2236328125</v>
+        <v>-0.52734375</v>
       </c>
       <c r="C501">
         <v>0</v>
